--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Название предмета</t>
   </si>
@@ -26,31 +26,34 @@
     <t>Часы</t>
   </si>
   <si>
-    <t>Иностранные языкиawsedrc67vtybuni</t>
-  </si>
-  <si>
-    <t>фффффффффф-23-421</t>
-  </si>
-  <si>
-    <t>dsafddd</t>
-  </si>
-  <si>
-    <t>выфвфывыфв</t>
-  </si>
-  <si>
-    <t>SFAGDHFGJHKJKGJHFDGFWR2Q41235645765</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>gdssdggggfg</t>
-  </si>
-  <si>
     <t>Математический анализ</t>
   </si>
   <si>
-    <t>1234567890987654ESXCFGHNJH</t>
+    <t>Инф16-3</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>ис 16-2</t>
+  </si>
+  <si>
+    <t>Иностранные языки</t>
+  </si>
+  <si>
+    <t>История Казахстана</t>
+  </si>
+  <si>
+    <t>Абдиахметова З.М</t>
+  </si>
+  <si>
+    <t>Численные методы</t>
+  </si>
+  <si>
+    <t>Инф-19-02</t>
+  </si>
+  <si>
+    <t>Кайырбекова Алия Саматовна</t>
   </si>
 </sst>
 </file>
@@ -102,15 +105,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.1953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.3359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -139,7 +142,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>105.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="3">
@@ -150,80 +153,52 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>105.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>105.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75.0</v>
+        <v>45.0</v>
       </c>
     </row>
   </sheetData>
